--- a/LearnMemTolPheno/ProcessedData/HeatPlate_autotrack/RNAi_Val2_Chmb_positions.xlsx
+++ b/LearnMemTolPheno/ProcessedData/HeatPlate_autotrack/RNAi_Val2_Chmb_positions.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethking/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57980D01-1BF5-FC46-98ED-94FCF1F2056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -157,36 +166,43 @@
     <t>2021-07-02</t>
   </si>
   <si>
-    <t>2021-07-02_RNAi-36304.25750-3_group1</t>
-  </si>
-  <si>
     <t>2021-07-02_RNAi-25750-3_group1</t>
   </si>
   <si>
     <t>2021-07-02_RNAi-3954-3_group1</t>
   </si>
+  <si>
+    <t>2021-07-02_RNAi-36304.25750-3_group2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -196,7 +212,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -206,59 +222,52 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -448,23 +457,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C340" sqref="C340"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="36.71"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -492,11 +506,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -507,11 +521,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -522,11 +536,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -537,11 +551,11 @@
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -552,11 +566,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -567,11 +581,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -582,11 +596,11 @@
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -597,11 +611,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -612,11 +626,11 @@
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -627,11 +641,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -642,11 +656,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -657,11 +671,11 @@
         <v>8</v>
       </c>
       <c r="D13" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -672,11 +686,11 @@
         <v>8</v>
       </c>
       <c r="D14" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -687,11 +701,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -702,11 +716,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="8">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -717,11 +731,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -732,11 +746,11 @@
         <v>8</v>
       </c>
       <c r="D18" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -747,11 +761,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -762,11 +776,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="8">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -777,11 +791,11 @@
         <v>8</v>
       </c>
       <c r="D21" s="8">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -792,11 +806,11 @@
         <v>8</v>
       </c>
       <c r="D22" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -807,11 +821,11 @@
         <v>8</v>
       </c>
       <c r="D23" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -822,11 +836,11 @@
         <v>9</v>
       </c>
       <c r="D24" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -837,11 +851,11 @@
         <v>9</v>
       </c>
       <c r="D25" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -852,11 +866,11 @@
         <v>9</v>
       </c>
       <c r="D26" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -867,11 +881,11 @@
         <v>9</v>
       </c>
       <c r="D27" s="8">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -882,11 +896,11 @@
         <v>9</v>
       </c>
       <c r="D28" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -897,11 +911,11 @@
         <v>9</v>
       </c>
       <c r="D29" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -912,11 +926,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -927,11 +941,11 @@
         <v>9</v>
       </c>
       <c r="D31" s="8">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -942,11 +956,11 @@
         <v>9</v>
       </c>
       <c r="D32" s="8">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -957,11 +971,11 @@
         <v>9</v>
       </c>
       <c r="D33" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -972,11 +986,11 @@
         <v>9</v>
       </c>
       <c r="D34" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -987,11 +1001,11 @@
         <v>11</v>
       </c>
       <c r="D35" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
@@ -1002,11 +1016,11 @@
         <v>11</v>
       </c>
       <c r="D36" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
@@ -1017,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
@@ -1031,10 +1045,10 @@
         <v>11</v>
       </c>
       <c r="D38" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
@@ -1045,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
@@ -1059,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>10</v>
       </c>
@@ -1073,10 +1087,10 @@
         <v>11</v>
       </c>
       <c r="D41" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>10</v>
       </c>
@@ -1087,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="D42" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>10</v>
       </c>
@@ -1101,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>10</v>
       </c>
@@ -1115,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
@@ -1129,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
@@ -1143,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>10</v>
       </c>
@@ -1157,10 +1171,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>10</v>
       </c>
@@ -1171,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>10</v>
       </c>
@@ -1185,10 +1199,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -1199,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="D50" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>10</v>
       </c>
@@ -1213,10 +1227,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -1227,10 +1241,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
@@ -1241,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>10</v>
       </c>
@@ -1255,10 +1269,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -1269,10 +1283,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -1283,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>10</v>
       </c>
@@ -1297,10 +1311,10 @@
         <v>13</v>
       </c>
       <c r="D57" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>10</v>
       </c>
@@ -1311,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="D58" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>10</v>
       </c>
@@ -1325,10 +1339,10 @@
         <v>13</v>
       </c>
       <c r="D59" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>10</v>
       </c>
@@ -1339,10 +1353,10 @@
         <v>13</v>
       </c>
       <c r="D60" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>10</v>
       </c>
@@ -1353,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>10</v>
       </c>
@@ -1367,10 +1381,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>10</v>
       </c>
@@ -1381,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="D63" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
@@ -1395,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="D64" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>10</v>
       </c>
@@ -1409,10 +1423,10 @@
         <v>13</v>
       </c>
       <c r="D65" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>10</v>
       </c>
@@ -1423,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="D66" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>10</v>
       </c>
@@ -1437,10 +1451,10 @@
         <v>13</v>
       </c>
       <c r="D67" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>10</v>
       </c>
@@ -1451,10 +1465,10 @@
         <v>14</v>
       </c>
       <c r="D68" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>10</v>
       </c>
@@ -1465,10 +1479,10 @@
         <v>14</v>
       </c>
       <c r="D69" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>10</v>
       </c>
@@ -1479,10 +1493,10 @@
         <v>14</v>
       </c>
       <c r="D70" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>10</v>
       </c>
@@ -1493,10 +1507,10 @@
         <v>14</v>
       </c>
       <c r="D71" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>10</v>
       </c>
@@ -1507,10 +1521,10 @@
         <v>14</v>
       </c>
       <c r="D72" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>10</v>
       </c>
@@ -1521,10 +1535,10 @@
         <v>14</v>
       </c>
       <c r="D73" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>10</v>
       </c>
@@ -1535,10 +1549,10 @@
         <v>14</v>
       </c>
       <c r="D74" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
@@ -1549,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>10</v>
       </c>
@@ -1563,10 +1577,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>10</v>
       </c>
@@ -1577,10 +1591,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>10</v>
       </c>
@@ -1591,10 +1605,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>15</v>
       </c>
@@ -1605,10 +1619,10 @@
         <v>16</v>
       </c>
       <c r="D79" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -1619,10 +1633,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>15</v>
       </c>
@@ -1633,10 +1647,10 @@
         <v>16</v>
       </c>
       <c r="D81" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>15</v>
       </c>
@@ -1647,10 +1661,10 @@
         <v>16</v>
       </c>
       <c r="D82" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>15</v>
       </c>
@@ -1661,10 +1675,10 @@
         <v>16</v>
       </c>
       <c r="D83" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>15</v>
       </c>
@@ -1675,10 +1689,10 @@
         <v>16</v>
       </c>
       <c r="D84" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>15</v>
       </c>
@@ -1689,10 +1703,10 @@
         <v>16</v>
       </c>
       <c r="D85" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>15</v>
       </c>
@@ -1703,10 +1717,10 @@
         <v>16</v>
       </c>
       <c r="D86" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>15</v>
       </c>
@@ -1717,10 +1731,10 @@
         <v>16</v>
       </c>
       <c r="D87" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -1731,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="D88" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>15</v>
       </c>
@@ -1745,10 +1759,10 @@
         <v>16</v>
       </c>
       <c r="D89" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>17</v>
       </c>
@@ -1759,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="D90" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>17</v>
       </c>
@@ -1773,10 +1787,10 @@
         <v>18</v>
       </c>
       <c r="D91" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>17</v>
       </c>
@@ -1787,10 +1801,10 @@
         <v>18</v>
       </c>
       <c r="D92" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>17</v>
       </c>
@@ -1801,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="D93" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>17</v>
       </c>
@@ -1815,10 +1829,10 @@
         <v>18</v>
       </c>
       <c r="D94" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>17</v>
       </c>
@@ -1829,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="D95" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>17</v>
       </c>
@@ -1843,10 +1857,10 @@
         <v>18</v>
       </c>
       <c r="D96" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>17</v>
       </c>
@@ -1857,10 +1871,10 @@
         <v>18</v>
       </c>
       <c r="D97" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>17</v>
       </c>
@@ -1871,10 +1885,10 @@
         <v>18</v>
       </c>
       <c r="D98" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>17</v>
       </c>
@@ -1885,10 +1899,10 @@
         <v>18</v>
       </c>
       <c r="D99" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>17</v>
       </c>
@@ -1899,10 +1913,10 @@
         <v>18</v>
       </c>
       <c r="D100" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>17</v>
       </c>
@@ -1913,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="D101" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>17</v>
       </c>
@@ -1927,10 +1941,10 @@
         <v>20</v>
       </c>
       <c r="D102" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>17</v>
       </c>
@@ -1941,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>17</v>
       </c>
@@ -1955,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>17</v>
       </c>
@@ -1969,10 +1983,10 @@
         <v>20</v>
       </c>
       <c r="D105" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>17</v>
       </c>
@@ -1983,10 +1997,10 @@
         <v>20</v>
       </c>
       <c r="D106" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>17</v>
       </c>
@@ -1997,10 +2011,10 @@
         <v>20</v>
       </c>
       <c r="D107" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>17</v>
       </c>
@@ -2011,10 +2025,10 @@
         <v>20</v>
       </c>
       <c r="D108" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>17</v>
       </c>
@@ -2025,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="D109" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>17</v>
       </c>
@@ -2039,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="D110" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>17</v>
       </c>
@@ -2053,10 +2067,10 @@
         <v>20</v>
       </c>
       <c r="D111" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>17</v>
       </c>
@@ -2067,10 +2081,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>17</v>
       </c>
@@ -2081,10 +2095,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>17</v>
       </c>
@@ -2095,10 +2109,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>17</v>
       </c>
@@ -2109,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>17</v>
       </c>
@@ -2123,10 +2137,10 @@
         <v>21</v>
       </c>
       <c r="D116" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>17</v>
       </c>
@@ -2137,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>17</v>
       </c>
@@ -2151,10 +2165,10 @@
         <v>21</v>
       </c>
       <c r="D118" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>17</v>
       </c>
@@ -2165,10 +2179,10 @@
         <v>21</v>
       </c>
       <c r="D119" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>17</v>
       </c>
@@ -2179,10 +2193,10 @@
         <v>21</v>
       </c>
       <c r="D120" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>17</v>
       </c>
@@ -2193,10 +2207,10 @@
         <v>21</v>
       </c>
       <c r="D121" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>17</v>
       </c>
@@ -2207,10 +2221,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>17</v>
       </c>
@@ -2221,10 +2235,10 @@
         <v>22</v>
       </c>
       <c r="D123" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>17</v>
       </c>
@@ -2235,10 +2249,10 @@
         <v>22</v>
       </c>
       <c r="D124" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>17</v>
       </c>
@@ -2249,10 +2263,10 @@
         <v>22</v>
       </c>
       <c r="D125" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>17</v>
       </c>
@@ -2263,10 +2277,10 @@
         <v>22</v>
       </c>
       <c r="D126" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>17</v>
       </c>
@@ -2277,10 +2291,10 @@
         <v>22</v>
       </c>
       <c r="D127" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>17</v>
       </c>
@@ -2291,10 +2305,10 @@
         <v>22</v>
       </c>
       <c r="D128" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>17</v>
       </c>
@@ -2305,10 +2319,10 @@
         <v>22</v>
       </c>
       <c r="D129" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>17</v>
       </c>
@@ -2319,10 +2333,10 @@
         <v>22</v>
       </c>
       <c r="D130" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>17</v>
       </c>
@@ -2333,10 +2347,10 @@
         <v>22</v>
       </c>
       <c r="D131" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>17</v>
       </c>
@@ -2347,10 +2361,10 @@
         <v>22</v>
       </c>
       <c r="D132" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>17</v>
       </c>
@@ -2361,10 +2375,10 @@
         <v>22</v>
       </c>
       <c r="D133" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>17</v>
       </c>
@@ -2375,10 +2389,10 @@
         <v>23</v>
       </c>
       <c r="D134" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>17</v>
       </c>
@@ -2389,10 +2403,10 @@
         <v>23</v>
       </c>
       <c r="D135" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>17</v>
       </c>
@@ -2403,10 +2417,10 @@
         <v>23</v>
       </c>
       <c r="D136" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>17</v>
       </c>
@@ -2417,10 +2431,10 @@
         <v>23</v>
       </c>
       <c r="D137" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>17</v>
       </c>
@@ -2431,10 +2445,10 @@
         <v>23</v>
       </c>
       <c r="D138" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>17</v>
       </c>
@@ -2445,10 +2459,10 @@
         <v>23</v>
       </c>
       <c r="D139" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>17</v>
       </c>
@@ -2459,10 +2473,10 @@
         <v>23</v>
       </c>
       <c r="D140" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>17</v>
       </c>
@@ -2473,10 +2487,10 @@
         <v>23</v>
       </c>
       <c r="D141" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>17</v>
       </c>
@@ -2487,10 +2501,10 @@
         <v>23</v>
       </c>
       <c r="D142" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>17</v>
       </c>
@@ -2501,10 +2515,10 @@
         <v>23</v>
       </c>
       <c r="D143" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>17</v>
       </c>
@@ -2515,10 +2529,10 @@
         <v>23</v>
       </c>
       <c r="D144" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>24</v>
       </c>
@@ -2529,10 +2543,10 @@
         <v>25</v>
       </c>
       <c r="D145" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>24</v>
       </c>
@@ -2543,10 +2557,10 @@
         <v>25</v>
       </c>
       <c r="D146" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>24</v>
       </c>
@@ -2557,10 +2571,10 @@
         <v>25</v>
       </c>
       <c r="D147" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>24</v>
       </c>
@@ -2571,10 +2585,10 @@
         <v>25</v>
       </c>
       <c r="D148" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>24</v>
       </c>
@@ -2585,10 +2599,10 @@
         <v>25</v>
       </c>
       <c r="D149" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>24</v>
       </c>
@@ -2599,10 +2613,10 @@
         <v>25</v>
       </c>
       <c r="D150" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>24</v>
       </c>
@@ -2613,10 +2627,10 @@
         <v>25</v>
       </c>
       <c r="D151" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>24</v>
       </c>
@@ -2627,10 +2641,10 @@
         <v>25</v>
       </c>
       <c r="D152" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>24</v>
       </c>
@@ -2641,10 +2655,10 @@
         <v>25</v>
       </c>
       <c r="D153" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>24</v>
       </c>
@@ -2655,10 +2669,10 @@
         <v>25</v>
       </c>
       <c r="D154" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>24</v>
       </c>
@@ -2669,10 +2683,10 @@
         <v>25</v>
       </c>
       <c r="D155" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>24</v>
       </c>
@@ -2683,10 +2697,10 @@
         <v>26</v>
       </c>
       <c r="D156" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>24</v>
       </c>
@@ -2697,10 +2711,10 @@
         <v>26</v>
       </c>
       <c r="D157" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>24</v>
       </c>
@@ -2711,10 +2725,10 @@
         <v>26</v>
       </c>
       <c r="D158" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>24</v>
       </c>
@@ -2725,10 +2739,10 @@
         <v>26</v>
       </c>
       <c r="D159" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>24</v>
       </c>
@@ -2739,10 +2753,10 @@
         <v>26</v>
       </c>
       <c r="D160" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>24</v>
       </c>
@@ -2753,10 +2767,10 @@
         <v>26</v>
       </c>
       <c r="D161" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>24</v>
       </c>
@@ -2767,10 +2781,10 @@
         <v>26</v>
       </c>
       <c r="D162" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>24</v>
       </c>
@@ -2781,10 +2795,10 @@
         <v>26</v>
       </c>
       <c r="D163" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>24</v>
       </c>
@@ -2795,10 +2809,10 @@
         <v>26</v>
       </c>
       <c r="D164" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>24</v>
       </c>
@@ -2809,10 +2823,10 @@
         <v>26</v>
       </c>
       <c r="D165" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>24</v>
       </c>
@@ -2823,10 +2837,10 @@
         <v>26</v>
       </c>
       <c r="D166" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>24</v>
       </c>
@@ -2837,10 +2851,10 @@
         <v>27</v>
       </c>
       <c r="D167" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>24</v>
       </c>
@@ -2851,10 +2865,10 @@
         <v>27</v>
       </c>
       <c r="D168" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>24</v>
       </c>
@@ -2865,10 +2879,10 @@
         <v>27</v>
       </c>
       <c r="D169" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>24</v>
       </c>
@@ -2879,10 +2893,10 @@
         <v>27</v>
       </c>
       <c r="D170" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>24</v>
       </c>
@@ -2893,10 +2907,10 @@
         <v>27</v>
       </c>
       <c r="D171" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>24</v>
       </c>
@@ -2907,10 +2921,10 @@
         <v>27</v>
       </c>
       <c r="D172" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>24</v>
       </c>
@@ -2921,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="D173" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>24</v>
       </c>
@@ -2935,10 +2949,10 @@
         <v>27</v>
       </c>
       <c r="D174" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>24</v>
       </c>
@@ -2949,10 +2963,10 @@
         <v>27</v>
       </c>
       <c r="D175" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>24</v>
       </c>
@@ -2963,10 +2977,10 @@
         <v>27</v>
       </c>
       <c r="D176" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>24</v>
       </c>
@@ -2977,10 +2991,10 @@
         <v>27</v>
       </c>
       <c r="D177" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>24</v>
       </c>
@@ -2991,10 +3005,10 @@
         <v>28</v>
       </c>
       <c r="D178" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>24</v>
       </c>
@@ -3005,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="D179" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>24</v>
       </c>
@@ -3019,10 +3033,10 @@
         <v>29</v>
       </c>
       <c r="D180" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>24</v>
       </c>
@@ -3033,10 +3047,10 @@
         <v>29</v>
       </c>
       <c r="D181" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>24</v>
       </c>
@@ -3047,10 +3061,10 @@
         <v>29</v>
       </c>
       <c r="D182" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>24</v>
       </c>
@@ -3061,10 +3075,10 @@
         <v>29</v>
       </c>
       <c r="D183" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>24</v>
       </c>
@@ -3075,10 +3089,10 @@
         <v>29</v>
       </c>
       <c r="D184" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>24</v>
       </c>
@@ -3089,10 +3103,10 @@
         <v>29</v>
       </c>
       <c r="D185" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>24</v>
       </c>
@@ -3103,10 +3117,10 @@
         <v>29</v>
       </c>
       <c r="D186" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>24</v>
       </c>
@@ -3117,10 +3131,10 @@
         <v>29</v>
       </c>
       <c r="D187" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>24</v>
       </c>
@@ -3131,10 +3145,10 @@
         <v>29</v>
       </c>
       <c r="D188" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>24</v>
       </c>
@@ -3145,10 +3159,10 @@
         <v>28</v>
       </c>
       <c r="D189" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>24</v>
       </c>
@@ -3159,10 +3173,10 @@
         <v>28</v>
       </c>
       <c r="D190" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>24</v>
       </c>
@@ -3173,10 +3187,10 @@
         <v>28</v>
       </c>
       <c r="D191" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>24</v>
       </c>
@@ -3187,10 +3201,10 @@
         <v>28</v>
       </c>
       <c r="D192" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>24</v>
       </c>
@@ -3201,10 +3215,10 @@
         <v>28</v>
       </c>
       <c r="D193" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>24</v>
       </c>
@@ -3215,10 +3229,10 @@
         <v>28</v>
       </c>
       <c r="D194" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>24</v>
       </c>
@@ -3229,10 +3243,10 @@
         <v>28</v>
       </c>
       <c r="D195" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>24</v>
       </c>
@@ -3243,10 +3257,10 @@
         <v>28</v>
       </c>
       <c r="D196" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>24</v>
       </c>
@@ -3257,10 +3271,10 @@
         <v>28</v>
       </c>
       <c r="D197" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>24</v>
       </c>
@@ -3271,10 +3285,10 @@
         <v>28</v>
       </c>
       <c r="D198" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>24</v>
       </c>
@@ -3285,10 +3299,10 @@
         <v>28</v>
       </c>
       <c r="D199" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>24</v>
       </c>
@@ -3299,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="D200" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>24</v>
       </c>
@@ -3313,10 +3327,10 @@
         <v>30</v>
       </c>
       <c r="D201" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>24</v>
       </c>
@@ -3327,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="D202" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>24</v>
       </c>
@@ -3341,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="D203" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>24</v>
       </c>
@@ -3355,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="D204" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>24</v>
       </c>
@@ -3369,10 +3383,10 @@
         <v>30</v>
       </c>
       <c r="D205" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>24</v>
       </c>
@@ -3383,10 +3397,10 @@
         <v>30</v>
       </c>
       <c r="D206" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>24</v>
       </c>
@@ -3397,10 +3411,10 @@
         <v>30</v>
       </c>
       <c r="D207" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>24</v>
       </c>
@@ -3411,10 +3425,10 @@
         <v>30</v>
       </c>
       <c r="D208" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>24</v>
       </c>
@@ -3425,10 +3439,10 @@
         <v>30</v>
       </c>
       <c r="D209" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>24</v>
       </c>
@@ -3439,10 +3453,10 @@
         <v>30</v>
       </c>
       <c r="D210" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>31</v>
       </c>
@@ -3453,10 +3467,10 @@
         <v>32</v>
       </c>
       <c r="D211" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>31</v>
       </c>
@@ -3467,10 +3481,10 @@
         <v>32</v>
       </c>
       <c r="D212" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>31</v>
       </c>
@@ -3481,10 +3495,10 @@
         <v>32</v>
       </c>
       <c r="D213" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>31</v>
       </c>
@@ -3495,10 +3509,10 @@
         <v>32</v>
       </c>
       <c r="D214" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>31</v>
       </c>
@@ -3509,10 +3523,10 @@
         <v>32</v>
       </c>
       <c r="D215" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>31</v>
       </c>
@@ -3523,10 +3537,10 @@
         <v>32</v>
       </c>
       <c r="D216" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>31</v>
       </c>
@@ -3537,10 +3551,10 @@
         <v>32</v>
       </c>
       <c r="D217" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>31</v>
       </c>
@@ -3551,10 +3565,10 @@
         <v>32</v>
       </c>
       <c r="D218" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>31</v>
       </c>
@@ -3565,10 +3579,10 @@
         <v>32</v>
       </c>
       <c r="D219" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>31</v>
       </c>
@@ -3579,10 +3593,10 @@
         <v>32</v>
       </c>
       <c r="D220" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>31</v>
       </c>
@@ -3593,10 +3607,10 @@
         <v>32</v>
       </c>
       <c r="D221" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>31</v>
       </c>
@@ -3607,10 +3621,10 @@
         <v>33</v>
       </c>
       <c r="D222" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>31</v>
       </c>
@@ -3621,10 +3635,10 @@
         <v>33</v>
       </c>
       <c r="D223" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>31</v>
       </c>
@@ -3635,10 +3649,10 @@
         <v>33</v>
       </c>
       <c r="D224" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>31</v>
       </c>
@@ -3649,10 +3663,10 @@
         <v>33</v>
       </c>
       <c r="D225" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>31</v>
       </c>
@@ -3663,10 +3677,10 @@
         <v>33</v>
       </c>
       <c r="D226" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>31</v>
       </c>
@@ -3677,10 +3691,10 @@
         <v>33</v>
       </c>
       <c r="D227" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>31</v>
       </c>
@@ -3691,10 +3705,10 @@
         <v>33</v>
       </c>
       <c r="D228" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>31</v>
       </c>
@@ -3705,10 +3719,10 @@
         <v>33</v>
       </c>
       <c r="D229" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>31</v>
       </c>
@@ -3719,10 +3733,10 @@
         <v>33</v>
       </c>
       <c r="D230" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>31</v>
       </c>
@@ -3733,10 +3747,10 @@
         <v>33</v>
       </c>
       <c r="D231" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>31</v>
       </c>
@@ -3747,10 +3761,10 @@
         <v>33</v>
       </c>
       <c r="D232" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>34</v>
       </c>
@@ -3761,10 +3775,10 @@
         <v>35</v>
       </c>
       <c r="D233" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>34</v>
       </c>
@@ -3775,10 +3789,10 @@
         <v>35</v>
       </c>
       <c r="D234" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>34</v>
       </c>
@@ -3789,10 +3803,10 @@
         <v>35</v>
       </c>
       <c r="D235" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>34</v>
       </c>
@@ -3803,10 +3817,10 @@
         <v>35</v>
       </c>
       <c r="D236" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>34</v>
       </c>
@@ -3817,10 +3831,10 @@
         <v>35</v>
       </c>
       <c r="D237" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>34</v>
       </c>
@@ -3831,10 +3845,10 @@
         <v>35</v>
       </c>
       <c r="D238" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>34</v>
       </c>
@@ -3845,10 +3859,10 @@
         <v>35</v>
       </c>
       <c r="D239" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>34</v>
       </c>
@@ -3859,10 +3873,10 @@
         <v>35</v>
       </c>
       <c r="D240" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>34</v>
       </c>
@@ -3873,10 +3887,10 @@
         <v>35</v>
       </c>
       <c r="D241" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>34</v>
       </c>
@@ -3887,10 +3901,10 @@
         <v>35</v>
       </c>
       <c r="D242" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>34</v>
       </c>
@@ -3901,10 +3915,10 @@
         <v>35</v>
       </c>
       <c r="D243" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>34</v>
       </c>
@@ -3915,10 +3929,10 @@
         <v>36</v>
       </c>
       <c r="D244" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>34</v>
       </c>
@@ -3929,10 +3943,10 @@
         <v>36</v>
       </c>
       <c r="D245" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>34</v>
       </c>
@@ -3943,10 +3957,10 @@
         <v>36</v>
       </c>
       <c r="D246" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>34</v>
       </c>
@@ -3957,10 +3971,10 @@
         <v>36</v>
       </c>
       <c r="D247" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>34</v>
       </c>
@@ -3971,10 +3985,10 @@
         <v>36</v>
       </c>
       <c r="D248" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>34</v>
       </c>
@@ -3985,10 +3999,10 @@
         <v>36</v>
       </c>
       <c r="D249" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>34</v>
       </c>
@@ -3999,10 +4013,10 @@
         <v>36</v>
       </c>
       <c r="D250" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>34</v>
       </c>
@@ -4013,10 +4027,10 @@
         <v>36</v>
       </c>
       <c r="D251" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>34</v>
       </c>
@@ -4027,10 +4041,10 @@
         <v>36</v>
       </c>
       <c r="D252" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>34</v>
       </c>
@@ -4041,10 +4055,10 @@
         <v>36</v>
       </c>
       <c r="D253" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>34</v>
       </c>
@@ -4055,10 +4069,10 @@
         <v>36</v>
       </c>
       <c r="D254" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>34</v>
       </c>
@@ -4069,10 +4083,10 @@
         <v>37</v>
       </c>
       <c r="D255" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>34</v>
       </c>
@@ -4083,10 +4097,10 @@
         <v>37</v>
       </c>
       <c r="D256" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>34</v>
       </c>
@@ -4097,10 +4111,10 @@
         <v>37</v>
       </c>
       <c r="D257" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>34</v>
       </c>
@@ -4111,10 +4125,10 @@
         <v>37</v>
       </c>
       <c r="D258" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>34</v>
       </c>
@@ -4125,10 +4139,10 @@
         <v>37</v>
       </c>
       <c r="D259" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>34</v>
       </c>
@@ -4139,10 +4153,10 @@
         <v>37</v>
       </c>
       <c r="D260" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>34</v>
       </c>
@@ -4153,10 +4167,10 @@
         <v>37</v>
       </c>
       <c r="D261" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>34</v>
       </c>
@@ -4167,10 +4181,10 @@
         <v>37</v>
       </c>
       <c r="D262" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>34</v>
       </c>
@@ -4181,10 +4195,10 @@
         <v>37</v>
       </c>
       <c r="D263" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>34</v>
       </c>
@@ -4195,10 +4209,10 @@
         <v>37</v>
       </c>
       <c r="D264" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>34</v>
       </c>
@@ -4209,10 +4223,10 @@
         <v>37</v>
       </c>
       <c r="D265" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>34</v>
       </c>
@@ -4223,10 +4237,10 @@
         <v>38</v>
       </c>
       <c r="D266" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>34</v>
       </c>
@@ -4237,10 +4251,10 @@
         <v>38</v>
       </c>
       <c r="D267" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>34</v>
       </c>
@@ -4251,10 +4265,10 @@
         <v>38</v>
       </c>
       <c r="D268" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>34</v>
       </c>
@@ -4265,10 +4279,10 @@
         <v>38</v>
       </c>
       <c r="D269" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>34</v>
       </c>
@@ -4279,10 +4293,10 @@
         <v>38</v>
       </c>
       <c r="D270" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>34</v>
       </c>
@@ -4293,10 +4307,10 @@
         <v>38</v>
       </c>
       <c r="D271" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>34</v>
       </c>
@@ -4307,10 +4321,10 @@
         <v>38</v>
       </c>
       <c r="D272" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>34</v>
       </c>
@@ -4321,10 +4335,10 @@
         <v>38</v>
       </c>
       <c r="D273" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>34</v>
       </c>
@@ -4335,10 +4349,10 @@
         <v>38</v>
       </c>
       <c r="D274" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>34</v>
       </c>
@@ -4349,10 +4363,10 @@
         <v>38</v>
       </c>
       <c r="D275" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>34</v>
       </c>
@@ -4363,10 +4377,10 @@
         <v>38</v>
       </c>
       <c r="D276" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>34</v>
       </c>
@@ -4377,10 +4391,10 @@
         <v>39</v>
       </c>
       <c r="D277" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>34</v>
       </c>
@@ -4391,10 +4405,10 @@
         <v>39</v>
       </c>
       <c r="D278" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>34</v>
       </c>
@@ -4405,10 +4419,10 @@
         <v>39</v>
       </c>
       <c r="D279" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>34</v>
       </c>
@@ -4419,10 +4433,10 @@
         <v>39</v>
       </c>
       <c r="D280" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>34</v>
       </c>
@@ -4433,10 +4447,10 @@
         <v>39</v>
       </c>
       <c r="D281" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>34</v>
       </c>
@@ -4447,10 +4461,10 @@
         <v>39</v>
       </c>
       <c r="D282" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>34</v>
       </c>
@@ -4461,10 +4475,10 @@
         <v>39</v>
       </c>
       <c r="D283" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>34</v>
       </c>
@@ -4475,10 +4489,10 @@
         <v>39</v>
       </c>
       <c r="D284" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>34</v>
       </c>
@@ -4489,10 +4503,10 @@
         <v>39</v>
       </c>
       <c r="D285" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>34</v>
       </c>
@@ -4503,10 +4517,10 @@
         <v>39</v>
       </c>
       <c r="D286" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>34</v>
       </c>
@@ -4517,10 +4531,10 @@
         <v>39</v>
       </c>
       <c r="D287" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>34</v>
       </c>
@@ -4531,10 +4545,10 @@
         <v>40</v>
       </c>
       <c r="D288" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>34</v>
       </c>
@@ -4545,10 +4559,10 @@
         <v>40</v>
       </c>
       <c r="D289" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>34</v>
       </c>
@@ -4559,10 +4573,10 @@
         <v>40</v>
       </c>
       <c r="D290" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>34</v>
       </c>
@@ -4573,10 +4587,10 @@
         <v>40</v>
       </c>
       <c r="D291" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>34</v>
       </c>
@@ -4587,10 +4601,10 @@
         <v>40</v>
       </c>
       <c r="D292" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>34</v>
       </c>
@@ -4601,10 +4615,10 @@
         <v>40</v>
       </c>
       <c r="D293" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>34</v>
       </c>
@@ -4615,10 +4629,10 @@
         <v>40</v>
       </c>
       <c r="D294" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>34</v>
       </c>
@@ -4629,10 +4643,10 @@
         <v>40</v>
       </c>
       <c r="D295" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>34</v>
       </c>
@@ -4643,10 +4657,10 @@
         <v>40</v>
       </c>
       <c r="D296" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>34</v>
       </c>
@@ -4657,10 +4671,10 @@
         <v>40</v>
       </c>
       <c r="D297" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>41</v>
       </c>
@@ -4671,10 +4685,10 @@
         <v>42</v>
       </c>
       <c r="D298" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>41</v>
       </c>
@@ -4685,10 +4699,10 @@
         <v>42</v>
       </c>
       <c r="D299" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>41</v>
       </c>
@@ -4699,10 +4713,10 @@
         <v>42</v>
       </c>
       <c r="D300" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>41</v>
       </c>
@@ -4713,10 +4727,10 @@
         <v>42</v>
       </c>
       <c r="D301" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>41</v>
       </c>
@@ -4727,10 +4741,10 @@
         <v>42</v>
       </c>
       <c r="D302" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>41</v>
       </c>
@@ -4741,10 +4755,10 @@
         <v>42</v>
       </c>
       <c r="D303" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>41</v>
       </c>
@@ -4755,10 +4769,10 @@
         <v>42</v>
       </c>
       <c r="D304" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>41</v>
       </c>
@@ -4769,10 +4783,10 @@
         <v>42</v>
       </c>
       <c r="D305" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>41</v>
       </c>
@@ -4783,10 +4797,10 @@
         <v>42</v>
       </c>
       <c r="D306" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>41</v>
       </c>
@@ -4797,10 +4811,10 @@
         <v>42</v>
       </c>
       <c r="D307" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>41</v>
       </c>
@@ -4811,10 +4825,10 @@
         <v>42</v>
       </c>
       <c r="D308" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>41</v>
       </c>
@@ -4825,10 +4839,10 @@
         <v>43</v>
       </c>
       <c r="D309" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>41</v>
       </c>
@@ -4839,10 +4853,10 @@
         <v>43</v>
       </c>
       <c r="D310" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>41</v>
       </c>
@@ -4853,10 +4867,10 @@
         <v>43</v>
       </c>
       <c r="D311" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="312">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>41</v>
       </c>
@@ -4867,10 +4881,10 @@
         <v>43</v>
       </c>
       <c r="D312" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>41</v>
       </c>
@@ -4881,10 +4895,10 @@
         <v>43</v>
       </c>
       <c r="D313" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>41</v>
       </c>
@@ -4895,10 +4909,10 @@
         <v>43</v>
       </c>
       <c r="D314" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>41</v>
       </c>
@@ -4909,10 +4923,10 @@
         <v>43</v>
       </c>
       <c r="D315" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>41</v>
       </c>
@@ -4923,10 +4937,10 @@
         <v>43</v>
       </c>
       <c r="D316" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>41</v>
       </c>
@@ -4937,10 +4951,10 @@
         <v>43</v>
       </c>
       <c r="D317" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>41</v>
       </c>
@@ -4951,10 +4965,10 @@
         <v>43</v>
       </c>
       <c r="D318" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>41</v>
       </c>
@@ -4965,10 +4979,10 @@
         <v>43</v>
       </c>
       <c r="D319" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>41</v>
       </c>
@@ -4979,10 +4993,10 @@
         <v>44</v>
       </c>
       <c r="D320" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>41</v>
       </c>
@@ -4993,10 +5007,10 @@
         <v>44</v>
       </c>
       <c r="D321" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>41</v>
       </c>
@@ -5007,10 +5021,10 @@
         <v>44</v>
       </c>
       <c r="D322" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="323">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>41</v>
       </c>
@@ -5021,10 +5035,10 @@
         <v>44</v>
       </c>
       <c r="D323" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>41</v>
       </c>
@@ -5035,10 +5049,10 @@
         <v>44</v>
       </c>
       <c r="D324" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="325">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>41</v>
       </c>
@@ -5049,10 +5063,10 @@
         <v>44</v>
       </c>
       <c r="D325" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="326">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>41</v>
       </c>
@@ -5063,10 +5077,10 @@
         <v>44</v>
       </c>
       <c r="D326" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>41</v>
       </c>
@@ -5077,10 +5091,10 @@
         <v>44</v>
       </c>
       <c r="D327" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>41</v>
       </c>
@@ -5091,10 +5105,10 @@
         <v>44</v>
       </c>
       <c r="D328" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>41</v>
       </c>
@@ -5105,10 +5119,10 @@
         <v>44</v>
       </c>
       <c r="D329" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>41</v>
       </c>
@@ -5119,10 +5133,10 @@
         <v>44</v>
       </c>
       <c r="D330" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="331">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>41</v>
       </c>
@@ -5133,10 +5147,10 @@
         <v>45</v>
       </c>
       <c r="D331" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="332">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>41</v>
       </c>
@@ -5147,10 +5161,10 @@
         <v>45</v>
       </c>
       <c r="D332" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="333">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>41</v>
       </c>
@@ -5161,10 +5175,10 @@
         <v>45</v>
       </c>
       <c r="D333" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="334">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>41</v>
       </c>
@@ -5175,10 +5189,10 @@
         <v>45</v>
       </c>
       <c r="D334" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>41</v>
       </c>
@@ -5189,10 +5203,10 @@
         <v>45</v>
       </c>
       <c r="D335" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="336">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>41</v>
       </c>
@@ -5203,10 +5217,10 @@
         <v>45</v>
       </c>
       <c r="D336" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="337">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>41</v>
       </c>
@@ -5217,10 +5231,10 @@
         <v>45</v>
       </c>
       <c r="D337" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>41</v>
       </c>
@@ -5231,10 +5245,10 @@
         <v>45</v>
       </c>
       <c r="D338" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="339">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>41</v>
       </c>
@@ -5245,10 +5259,10 @@
         <v>45</v>
       </c>
       <c r="D339" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="340">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>41</v>
       </c>
@@ -5259,10 +5273,10 @@
         <v>45</v>
       </c>
       <c r="D340" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="341">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>41</v>
       </c>
@@ -5273,10 +5287,10 @@
         <v>45</v>
       </c>
       <c r="D341" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="342">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>41</v>
       </c>
@@ -5287,10 +5301,10 @@
         <v>46</v>
       </c>
       <c r="D342" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>41</v>
       </c>
@@ -5301,10 +5315,10 @@
         <v>46</v>
       </c>
       <c r="D343" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="344">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>41</v>
       </c>
@@ -5315,10 +5329,10 @@
         <v>46</v>
       </c>
       <c r="D344" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="345">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>41</v>
       </c>
@@ -5329,10 +5343,10 @@
         <v>46</v>
       </c>
       <c r="D345" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="346">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>41</v>
       </c>
@@ -5343,10 +5357,10 @@
         <v>46</v>
       </c>
       <c r="D346" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="347">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>41</v>
       </c>
@@ -5357,10 +5371,10 @@
         <v>46</v>
       </c>
       <c r="D347" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="348">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>41</v>
       </c>
@@ -5371,10 +5385,10 @@
         <v>46</v>
       </c>
       <c r="D348" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="349">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>41</v>
       </c>
@@ -5385,10 +5399,10 @@
         <v>46</v>
       </c>
       <c r="D349" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="350">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>41</v>
       </c>
@@ -5399,10 +5413,10 @@
         <v>46</v>
       </c>
       <c r="D350" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>41</v>
       </c>
@@ -5413,10 +5427,10 @@
         <v>46</v>
       </c>
       <c r="D351" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="352">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>41</v>
       </c>
@@ -5427,10 +5441,10 @@
         <v>46</v>
       </c>
       <c r="D352" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>47</v>
       </c>
@@ -5438,13 +5452,13 @@
         <v>19</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D353" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="354">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>47</v>
       </c>
@@ -5452,13 +5466,13 @@
         <v>19</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D354" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="355">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>47</v>
       </c>
@@ -5466,13 +5480,13 @@
         <v>19</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D355" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="356">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>47</v>
       </c>
@@ -5480,13 +5494,13 @@
         <v>19</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D356" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>47</v>
       </c>
@@ -5494,13 +5508,13 @@
         <v>19</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D357" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="358">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>47</v>
       </c>
@@ -5508,13 +5522,13 @@
         <v>19</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D358" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="359">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>47</v>
       </c>
@@ -5522,13 +5536,13 @@
         <v>19</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D359" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="360">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>47</v>
       </c>
@@ -5536,13 +5550,13 @@
         <v>19</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D360" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="361">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>47</v>
       </c>
@@ -5550,13 +5564,13 @@
         <v>19</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D361" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="362">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>47</v>
       </c>
@@ -5564,13 +5578,13 @@
         <v>19</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D362" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="363">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>47</v>
       </c>
@@ -5578,13 +5592,13 @@
         <v>19</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D363" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="364">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>47</v>
       </c>
@@ -5592,13 +5606,13 @@
         <v>19</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D364" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="365">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>47</v>
       </c>
@@ -5606,13 +5620,13 @@
         <v>19</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D365" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="366">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>47</v>
       </c>
@@ -5620,13 +5634,13 @@
         <v>19</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D366" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="367">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>47</v>
       </c>
@@ -5634,13 +5648,13 @@
         <v>19</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D367" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="368">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>47</v>
       </c>
@@ -5648,13 +5662,13 @@
         <v>19</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D368" s="8">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="369">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>47</v>
       </c>
@@ -5662,13 +5676,13 @@
         <v>19</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D369" s="8">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="370">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>47</v>
       </c>
@@ -5676,13 +5690,13 @@
         <v>19</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D370" s="8">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="371">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>47</v>
       </c>
@@ -5690,13 +5704,13 @@
         <v>19</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D371" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="372">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>47</v>
       </c>
@@ -5704,13 +5718,13 @@
         <v>19</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D372" s="8">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="373">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>47</v>
       </c>
@@ -5718,13 +5732,13 @@
         <v>19</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D373" s="8">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="374">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>47</v>
       </c>
@@ -5732,13 +5746,13 @@
         <v>19</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D374" s="8">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="375">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>47</v>
       </c>
@@ -5746,13 +5760,13 @@
         <v>19</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D375" s="8">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="376">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>47</v>
       </c>
@@ -5760,13 +5774,13 @@
         <v>19</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D376" s="8">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="377">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>47</v>
       </c>
@@ -5774,163 +5788,163 @@
         <v>19</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D377" s="9">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="379">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D380" s="8"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D381" s="8"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D382" s="8"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D383" s="8"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D384" s="8"/>
     </row>
-    <row r="385">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385" s="8"/>
     </row>
-    <row r="386">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386" s="8"/>
     </row>
-    <row r="387">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387" s="8"/>
     </row>
-    <row r="388">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388" s="8"/>
     </row>
-    <row r="391">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D392" s="8"/>
     </row>
-    <row r="393">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393" s="8"/>
     </row>
-    <row r="394">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394" s="8"/>
     </row>
-    <row r="395">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395" s="8"/>
     </row>
-    <row r="396">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D396" s="8"/>
     </row>
-    <row r="397">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397" s="8"/>
     </row>
-    <row r="398">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398" s="8"/>
     </row>
-    <row r="399">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D399" s="8"/>
     </row>
-    <row r="400">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400" s="8"/>
     </row>
-    <row r="403">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D404" s="8"/>
     </row>
-    <row r="405">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D405" s="8"/>
     </row>
-    <row r="406">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D406" s="8"/>
     </row>
-    <row r="407">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D407" s="8"/>
     </row>
-    <row r="408">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D408" s="8"/>
     </row>
-    <row r="409">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D409" s="8"/>
     </row>
-    <row r="410">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D410" s="8"/>
     </row>
-    <row r="411">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D411" s="8"/>
     </row>
-    <row r="412">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D412" s="8"/>
     </row>
-    <row r="415">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D416" s="8"/>
     </row>
-    <row r="417">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D417" s="8"/>
     </row>
-    <row r="418">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D418" s="8"/>
     </row>
-    <row r="419">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D419" s="8"/>
     </row>
-    <row r="420">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D420" s="8"/>
     </row>
-    <row r="421">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D421" s="8"/>
     </row>
-    <row r="422">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D422" s="8"/>
     </row>
-    <row r="423">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D423" s="8"/>
     </row>
-    <row r="424">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D424" s="8"/>
     </row>
-    <row r="427">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D428" s="8"/>
     </row>
-    <row r="429">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D429" s="8"/>
     </row>
-    <row r="430">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D430" s="8"/>
     </row>
-    <row r="431">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D431" s="8"/>
     </row>
-    <row r="432">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D432" s="8"/>
     </row>
-    <row r="433">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D433" s="8"/>
     </row>
-    <row r="434">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434" s="8"/>
     </row>
-    <row r="435">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435" s="8"/>
     </row>
-    <row r="436">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D436" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>